--- a/apps/master/static/master/articulos.xlsx
+++ b/apps/master/static/master/articulos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos\sofi\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos\sofi\CRM\apps\master\static\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51588E05-7171-4B1E-A933-E26651D7782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02397EC5-133C-4BAE-98A8-537FBACFEFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1185" windowWidth="24240" windowHeight="13140" xr2:uid="{7419F2EC-8A01-4E26-8E63-03EF3ADEBE29}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>ALDATWR529</t>
   </si>
@@ -338,13 +338,16 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>descripcion</t>
-  </si>
-  <si>
     <t>cantidad</t>
   </si>
   <si>
     <t>ubicacion</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>visible bodega</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -444,12 +447,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,33 +794,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F759A3C9-8CB6-45A3-8B69-9C9744CB70DA}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="117" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +837,11 @@
       <c r="D2" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,8 +854,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +869,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +886,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +903,11 @@
       <c r="D6" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,8 +920,11 @@
       <c r="D7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,8 +937,11 @@
       <c r="D8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -912,8 +954,11 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -926,8 +971,11 @@
       <c r="D10" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -940,8 +988,11 @@
       <c r="D11" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -952,8 +1003,11 @@
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -966,8 +1020,11 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -980,8 +1037,11 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -994,8 +1054,11 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1008,8 +1071,11 @@
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1022,8 +1088,11 @@
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1036,8 +1105,11 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1048,8 +1120,11 @@
         <v>0</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1062,8 +1137,11 @@
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1076,8 +1154,11 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1090,8 +1171,11 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1104,8 +1188,11 @@
       <c r="D23" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1118,8 +1205,11 @@
       <c r="D24" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1132,8 +1222,11 @@
       <c r="D25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1146,8 +1239,11 @@
       <c r="D26" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1160,8 +1256,11 @@
       <c r="D27" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1174,8 +1273,11 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1188,8 +1290,11 @@
       <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1202,8 +1307,11 @@
       <c r="D30" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1216,8 +1324,11 @@
       <c r="D31" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1230,8 +1341,11 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1244,8 +1358,11 @@
       <c r="D33" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1258,8 +1375,11 @@
       <c r="D34" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1270,8 +1390,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1284,8 +1407,11 @@
       <c r="D36" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1298,8 +1424,11 @@
       <c r="D37" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1312,8 +1441,11 @@
       <c r="D38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1326,8 +1458,11 @@
       <c r="D39" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1340,8 +1475,11 @@
       <c r="D40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1354,8 +1492,11 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1368,8 +1509,11 @@
       <c r="D42" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1382,8 +1526,11 @@
       <c r="D43" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1396,8 +1543,11 @@
       <c r="D44" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1410,8 +1560,11 @@
       <c r="D45" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1424,8 +1577,11 @@
       <c r="D46" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1438,8 +1594,11 @@
       <c r="D47" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1452,8 +1611,11 @@
       <c r="D48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1466,8 +1628,11 @@
       <c r="D49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1479,6 +1644,9 @@
       </c>
       <c r="D50" s="1">
         <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
